--- a/tools/excel/aicpa/SOC2_2017_with_rev_2022.xlsx
+++ b/tools/excel/aicpa/SOC2_2017_with_rev_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\aicpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A80B35-F103-4439-BEB0-2D64314A7009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E384538-299D-441D-A5BF-76C2C42285FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="792" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19210" yWindow="-21710" windowWidth="38620" windowHeight="21820" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1311">
   <si>
     <t>type</t>
   </si>
@@ -94,12 +94,6 @@
   </si>
   <si>
     <t>intuitem</t>
-  </si>
-  <si>
-    <t>publication_date</t>
-  </si>
-  <si>
-    <t>2025-01-12 00:00:00</t>
   </si>
   <si>
     <t>name[es]</t>
@@ -4683,10 +4677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4716,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4796,35 +4790,27 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46" t="s">
+        <v>1198</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="46" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="49" t="s">
         <v>1201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>1203</v>
       </c>
     </row>
   </sheetData>
@@ -4851,15 +4837,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4867,7 +4853,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4891,12 +4877,12 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -4904,30 +4890,30 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" s="46" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -4939,9 +4925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FC413"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D179" sqref="D179"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4957,16 +4943,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>9</v>
@@ -4975,10 +4961,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4987,15 +4973,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="29"/>
     </row>
@@ -5005,120 +4991,120 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="25"/>
       <c r="F4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="25"/>
       <c r="F5" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="25"/>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="25"/>
       <c r="F7" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="25"/>
       <c r="F8" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5127,100 +5113,100 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="25"/>
       <c r="F10" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7">
         <v>3</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="25"/>
       <c r="F11" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="25"/>
       <c r="F12" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7">
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="25"/>
       <c r="F13" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5229,140 +5215,140 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="25"/>
       <c r="F15" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="25"/>
       <c r="F16" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="7">
         <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="25"/>
       <c r="F17" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7">
         <v>3</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="25"/>
       <c r="F18" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="25"/>
       <c r="F19" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7">
         <v>3</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="25"/>
       <c r="F20" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5371,160 +5357,160 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="7">
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="25"/>
       <c r="F22" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="7">
         <v>3</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="25"/>
       <c r="F23" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="7">
         <v>3</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="25"/>
       <c r="F24" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="7">
         <v>3</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="25"/>
       <c r="F25" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="7">
         <v>3</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="25"/>
       <c r="F26" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="7">
         <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="25"/>
       <c r="F27" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="7">
         <v>3</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="25"/>
       <c r="F28" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5533,140 +5519,140 @@
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="7">
         <v>3</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="25"/>
       <c r="F30" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="7">
         <v>3</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="25"/>
       <c r="F31" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7">
         <v>3</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="25"/>
       <c r="F32" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="7">
         <v>3</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="25"/>
       <c r="F33" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="7">
         <v>3</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="25"/>
       <c r="F34" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="7">
         <v>3</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="25"/>
       <c r="F35" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5675,15 +5661,15 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H36" s="11"/>
     </row>
@@ -5693,200 +5679,200 @@
         <v>2</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="14">
         <v>3</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="25"/>
       <c r="F38" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="14">
         <v>3</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="25"/>
       <c r="F39" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="14">
         <v>3</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="25"/>
       <c r="F40" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="14">
         <v>3</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="25"/>
       <c r="F41" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="14">
         <v>3</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="25"/>
       <c r="F42" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="14">
         <v>3</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="25"/>
       <c r="F43" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="14">
         <v>3</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="25"/>
       <c r="F44" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45" s="14">
         <v>3</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="25"/>
       <c r="F45" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="14">
         <v>3</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="25"/>
       <c r="F46" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5895,280 +5881,280 @@
         <v>2</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B48" s="14">
         <v>3</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="25"/>
       <c r="F48" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B49" s="14">
         <v>3</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="25"/>
       <c r="F49" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B50" s="14">
         <v>3</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="25"/>
       <c r="F50" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B51" s="14">
         <v>3</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="25"/>
       <c r="F51" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="14">
         <v>3</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="25"/>
       <c r="F52" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B53" s="14">
         <v>3</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="25"/>
       <c r="F53" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B54" s="14">
         <v>3</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="25"/>
       <c r="F54" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B55" s="14">
         <v>3</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="25"/>
       <c r="F55" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B56" s="14">
         <v>3</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="25"/>
       <c r="F56" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B57" s="14">
         <v>3</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="25"/>
       <c r="F57" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B58" s="14">
         <v>3</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="25"/>
       <c r="F58" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59" s="14">
         <v>3</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="25"/>
       <c r="F59" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B60" s="14">
         <v>3</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="25"/>
       <c r="F60" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6177,260 +6163,260 @@
         <v>2</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B62" s="14">
         <v>3</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="25"/>
       <c r="F62" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B63" s="14">
         <v>3</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="25"/>
       <c r="F63" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64" s="14">
         <v>3</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="25"/>
       <c r="F64" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" s="14">
         <v>3</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="25"/>
       <c r="F65" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B66" s="14">
         <v>3</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="25"/>
       <c r="F66" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B67" s="14">
         <v>3</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="25"/>
       <c r="F67" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B68" s="14">
         <v>3</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="25"/>
       <c r="F68" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B69" s="14">
         <v>3</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="25"/>
       <c r="F69" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B70" s="14">
         <v>3</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="25"/>
       <c r="F70" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B71" s="14">
         <v>3</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="25"/>
       <c r="F71" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B72" s="14">
         <v>3</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="25"/>
       <c r="F72" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G72" s="11"/>
       <c r="H72" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B73" s="14">
         <v>3</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="25"/>
       <c r="F73" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -6439,15 +6425,15 @@
         <v>1</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H74" s="11"/>
     </row>
@@ -6457,340 +6443,340 @@
         <v>2</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G75" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B76" s="7">
         <v>3</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="25"/>
       <c r="F76" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B77" s="7">
         <v>3</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="25"/>
       <c r="F77" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B78" s="7">
         <v>3</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="25"/>
       <c r="F78" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B79" s="7">
         <v>3</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="25"/>
       <c r="F79" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B80" s="7">
         <v>3</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="25"/>
       <c r="F80" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B81" s="7">
         <v>3</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="25"/>
       <c r="F81" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B82" s="7">
         <v>3</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="25"/>
       <c r="F82" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B83" s="7">
         <v>3</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="25"/>
       <c r="F83" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B84" s="7">
         <v>3</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="25"/>
       <c r="F84" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B85" s="7">
         <v>3</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="25"/>
       <c r="F85" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B86" s="7">
         <v>3</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="25"/>
       <c r="F86" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B87" s="7">
         <v>3</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="25"/>
       <c r="F87" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B88" s="7">
         <v>3</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="25"/>
       <c r="F88" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G88" s="11"/>
       <c r="H88" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B89" s="7">
         <v>3</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="25"/>
       <c r="F89" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B90" s="7">
         <v>3</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="25"/>
       <c r="F90" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B91" s="7">
         <v>3</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="25"/>
       <c r="F91" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6799,208 +6785,208 @@
         <v>2</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G92" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="H92" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B93" s="7">
         <v>3</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="25"/>
       <c r="F93" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B94" s="7">
         <v>3</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="25"/>
       <c r="F94" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B95" s="7">
         <v>3</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="25"/>
       <c r="F95" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B96" s="7">
         <v>3</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="25"/>
       <c r="F96" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B97" s="7">
         <v>3</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="25"/>
       <c r="F97" s="44" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="44" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B98" s="40">
         <v>3</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="42" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="42" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B99" s="7">
         <v>3</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B100" s="7">
         <v>3</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B101" s="7">
         <v>3</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7009,120 +6995,120 @@
         <v>2</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="G102" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="H102" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B103" s="7">
         <v>3</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="25"/>
       <c r="F103" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B104" s="7">
         <v>3</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="25"/>
       <c r="F104" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B105" s="7">
         <v>3</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="25"/>
       <c r="F105" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B106" s="7">
         <v>3</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="25"/>
       <c r="F106" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B107" s="7">
         <v>3</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="25"/>
       <c r="F107" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -7131,140 +7117,140 @@
         <v>2</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G108" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="H108" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B109" s="7">
         <v>3</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="25"/>
       <c r="F109" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B110" s="7">
         <v>3</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="25"/>
       <c r="F110" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B111" s="7">
         <v>3</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="25"/>
       <c r="F111" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B112" s="7">
         <v>3</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D112" s="10"/>
       <c r="E112" s="25"/>
       <c r="F112" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B113" s="7">
         <v>3</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D113" s="10"/>
       <c r="E113" s="25"/>
       <c r="F113" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B114" s="7">
         <v>3</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D114" s="10"/>
       <c r="E114" s="25"/>
       <c r="F114" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -7273,15 +7259,15 @@
         <v>1</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H115" s="11"/>
     </row>
@@ -7291,180 +7277,180 @@
         <v>2</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G116" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="H116" s="9" t="s">
         <v>394</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B117" s="7">
         <v>3</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D117" s="10"/>
       <c r="E117" s="25"/>
       <c r="F117" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B118" s="7">
         <v>3</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D118" s="10"/>
       <c r="E118" s="25"/>
       <c r="F118" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B119" s="7">
         <v>3</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="25"/>
       <c r="F119" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B120" s="7">
         <v>3</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="25"/>
       <c r="F120" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G120" s="11"/>
       <c r="H120" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B121" s="7">
         <v>3</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D121" s="10"/>
       <c r="E121" s="25"/>
       <c r="F121" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B122" s="7">
         <v>3</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="25"/>
       <c r="F122" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G122" s="11"/>
       <c r="H122" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B123" s="7">
         <v>3</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D123" s="10"/>
       <c r="E123" s="25"/>
       <c r="F123" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G123" s="11"/>
       <c r="H123" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B124" s="7">
         <v>3</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D124" s="16"/>
       <c r="E124" s="27"/>
       <c r="F124" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G124" s="11"/>
       <c r="H124" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -7473,80 +7459,80 @@
         <v>2</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G125" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="H125" s="9" t="s">
         <v>423</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B126" s="7">
         <v>3</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D126" s="10"/>
       <c r="E126" s="25"/>
       <c r="F126" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G126" s="11"/>
       <c r="H126" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B127" s="7">
         <v>3</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="25"/>
       <c r="F127" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G127" s="11"/>
       <c r="H127" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B128" s="7">
         <v>3</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D128" s="10"/>
       <c r="E128" s="25"/>
       <c r="F128" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G128" s="11"/>
       <c r="H128" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -7555,15 +7541,15 @@
         <v>1</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H129" s="11"/>
     </row>
@@ -7573,140 +7559,140 @@
         <v>2</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G130" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="H130" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B131" s="7">
         <v>3</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="25"/>
       <c r="F131" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G131" s="11"/>
       <c r="H131" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B132" s="7">
         <v>3</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D132" s="10"/>
       <c r="E132" s="25"/>
       <c r="F132" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G132" s="11"/>
       <c r="H132" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B133" s="7">
         <v>3</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D133" s="10"/>
       <c r="E133" s="25"/>
       <c r="F133" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G133" s="11"/>
       <c r="H133" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B134" s="7">
         <v>3</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="25"/>
       <c r="F134" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B135" s="7">
         <v>3</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="25"/>
       <c r="F135" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B136" s="7">
         <v>3</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="25"/>
       <c r="F136" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G136" s="11"/>
       <c r="H136" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7715,100 +7701,100 @@
         <v>2</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="G137" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="H137" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B138" s="7">
         <v>3</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="25"/>
       <c r="F138" s="44" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B139" s="7">
         <v>3</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="25"/>
       <c r="F139" s="44" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B140" s="7">
         <v>3</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="25"/>
       <c r="F140" s="44" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B141" s="7">
         <v>3</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="25"/>
       <c r="F141" s="44" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7817,138 +7803,138 @@
         <v>2</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B143" s="7">
         <v>3</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="25"/>
       <c r="F143" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B144" s="7">
         <v>3</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="25"/>
       <c r="F144" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B145" s="7">
         <v>3</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="25"/>
       <c r="F145" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B146" s="7">
         <v>3</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="25"/>
       <c r="F146" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G146" s="11"/>
       <c r="H146" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B147" s="7">
         <v>3</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="25"/>
       <c r="F147" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B148" s="7">
         <v>3</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="25"/>
       <c r="F148" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7957,15 +7943,15 @@
         <v>1</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F149" s="11"/>
       <c r="G149" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H149" s="11"/>
     </row>
@@ -7975,276 +7961,276 @@
         <v>2</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B151" s="14">
         <v>3</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="25"/>
       <c r="F151" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B152" s="14">
         <v>3</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="25"/>
       <c r="F152" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B153" s="14">
         <v>3</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="25"/>
       <c r="F153" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B154" s="14">
         <v>3</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="25"/>
       <c r="F154" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B155" s="14">
         <v>3</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="25"/>
       <c r="F155" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B156" s="14">
         <v>3</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="25"/>
       <c r="F156" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B157" s="14">
         <v>3</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="25"/>
       <c r="F157" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B158" s="14">
         <v>3</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="25"/>
       <c r="F158" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G158" s="11"/>
       <c r="H158" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B159" s="14">
         <v>3</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="25"/>
       <c r="F159" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G159" s="11"/>
       <c r="H159" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B160" s="14">
         <v>3</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D160" s="10"/>
       <c r="E160" s="25"/>
       <c r="F160" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G160" s="11"/>
       <c r="H160" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B161" s="14">
         <v>3</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="25"/>
       <c r="F161" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G161" s="11"/>
       <c r="H161" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B162" s="14">
         <v>3</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="25"/>
       <c r="F162" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G162" s="11"/>
       <c r="H162" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B163" s="14">
         <v>3</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="25"/>
       <c r="F163" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G163" s="11"/>
       <c r="H163" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -8253,76 +8239,76 @@
         <v>2</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B165" s="14">
         <v>3</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="25"/>
       <c r="F165" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G165" s="11"/>
       <c r="H165" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B166" s="14">
         <v>3</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="25"/>
       <c r="F166" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G166" s="11"/>
       <c r="H166" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B167" s="14">
         <v>3</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="25"/>
       <c r="F167" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G167" s="11"/>
       <c r="H167" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -8331,96 +8317,96 @@
         <v>2</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G168" s="9"/>
       <c r="H168" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B169" s="14">
         <v>3</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="25"/>
       <c r="F169" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G169" s="11"/>
       <c r="H169" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B170" s="14">
         <v>3</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="25"/>
       <c r="F170" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G170" s="11"/>
       <c r="H170" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B171" s="14">
         <v>3</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="25"/>
       <c r="F171" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G171" s="11"/>
       <c r="H171" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B172" s="14">
         <v>3</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="25"/>
       <c r="F172" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G172" s="11"/>
       <c r="H172" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -8429,96 +8415,96 @@
         <v>2</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B174" s="14">
         <v>3</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="25"/>
       <c r="F174" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G174" s="11"/>
       <c r="H174" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B175" s="14">
         <v>3</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="25"/>
       <c r="F175" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G175" s="11"/>
       <c r="H175" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B176" s="14">
         <v>3</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="25"/>
       <c r="F176" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G176" s="11"/>
       <c r="H176" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B177" s="14">
         <v>3</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="25"/>
       <c r="F177" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G177" s="11"/>
       <c r="H177" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -8527,38 +8513,38 @@
         <v>2</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G178" s="9"/>
       <c r="H178" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B179" s="14">
         <v>3</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D179" s="41" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E179" s="25"/>
       <c r="F179" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G179" s="11"/>
       <c r="H179" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8567,96 +8553,96 @@
         <v>2</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G180" s="9"/>
       <c r="H180" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B181" s="14">
         <v>3</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="25"/>
       <c r="F181" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G181" s="11"/>
       <c r="H181" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B182" s="14">
         <v>3</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="25"/>
       <c r="F182" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G182" s="11"/>
       <c r="H182" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B183" s="14">
         <v>3</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="25"/>
       <c r="F183" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G183" s="11"/>
       <c r="H183" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B184" s="14">
         <v>3</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="25"/>
       <c r="F184" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G184" s="11"/>
       <c r="H184" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -8665,96 +8651,96 @@
         <v>2</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G185" s="9"/>
       <c r="H185" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B186" s="14">
         <v>3</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="25"/>
       <c r="F186" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G186" s="11"/>
       <c r="H186" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B187" s="14">
         <v>3</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D187" s="10"/>
       <c r="E187" s="25"/>
       <c r="F187" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G187" s="11"/>
       <c r="H187" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B188" s="14">
         <v>3</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D188" s="10"/>
       <c r="E188" s="25"/>
       <c r="F188" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G188" s="11"/>
       <c r="H188" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B189" s="14">
         <v>3</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D189" s="10"/>
       <c r="E189" s="25"/>
       <c r="F189" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G189" s="11"/>
       <c r="H189" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8763,116 +8749,116 @@
         <v>2</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="F190" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B191" s="14">
         <v>3</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D191" s="10"/>
       <c r="E191" s="25"/>
       <c r="F191" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G191" s="11"/>
       <c r="H191" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B192" s="14">
         <v>3</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D192" s="10"/>
       <c r="E192" s="25"/>
       <c r="F192" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G192" s="11"/>
       <c r="H192" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B193" s="14">
         <v>3</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D193" s="10"/>
       <c r="E193" s="25"/>
       <c r="F193" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G193" s="11"/>
       <c r="H193" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B194" s="14">
         <v>3</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D194" s="10"/>
       <c r="E194" s="25"/>
       <c r="F194" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G194" s="11"/>
       <c r="H194" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B195" s="14">
         <v>3</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D195" s="10"/>
       <c r="E195" s="25"/>
       <c r="F195" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G195" s="11"/>
       <c r="H195" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -8881,15 +8867,15 @@
         <v>1</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D196" s="12"/>
       <c r="E196" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F196" s="11"/>
       <c r="G196" s="13" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H196" s="11"/>
     </row>
@@ -8899,116 +8885,116 @@
         <v>2</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="F197" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B198" s="7">
         <v>3</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D198" s="16"/>
       <c r="E198" s="27"/>
       <c r="F198" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G198" s="18"/>
       <c r="H198" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B199" s="7">
         <v>3</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D199" s="16"/>
       <c r="E199" s="27"/>
       <c r="F199" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G199" s="18"/>
       <c r="H199" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B200" s="7">
         <v>3</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D200" s="16"/>
       <c r="E200" s="27"/>
       <c r="F200" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G200" s="18"/>
       <c r="H200" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B201" s="7">
         <v>3</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="27"/>
       <c r="F201" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G201" s="18"/>
       <c r="H201" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B202" s="7">
         <v>3</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="27"/>
       <c r="F202" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G202" s="18"/>
       <c r="H202" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -9017,96 +9003,96 @@
         <v>2</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
       <c r="F203" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B204" s="7">
         <v>3</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D204" s="16"/>
       <c r="E204" s="27"/>
       <c r="F204" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G204" s="11"/>
       <c r="H204" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B205" s="7">
         <v>3</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D205" s="16"/>
       <c r="E205" s="27"/>
       <c r="F205" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G205" s="11"/>
       <c r="H205" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B206" s="7">
         <v>3</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D206" s="16"/>
       <c r="E206" s="27"/>
       <c r="F206" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G206" s="11"/>
       <c r="H206" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B207" s="7">
         <v>3</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D207" s="16"/>
       <c r="E207" s="27"/>
       <c r="F207" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G207" s="11"/>
       <c r="H207" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -9115,156 +9101,156 @@
         <v>2</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
       <c r="F208" s="9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G208" s="9"/>
       <c r="H208" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B209" s="7">
         <v>3</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D209" s="16"/>
       <c r="E209" s="27"/>
       <c r="F209" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G209" s="11"/>
       <c r="H209" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B210" s="7">
         <v>3</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="27"/>
       <c r="F210" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G210" s="11"/>
       <c r="H210" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B211" s="7">
         <v>3</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D211" s="16"/>
       <c r="E211" s="27"/>
       <c r="F211" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G211" s="11"/>
       <c r="H211" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B212" s="7">
         <v>3</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D212" s="16"/>
       <c r="E212" s="27"/>
       <c r="F212" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G212" s="11"/>
       <c r="H212" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B213" s="7">
         <v>3</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D213" s="16"/>
       <c r="E213" s="27"/>
       <c r="F213" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G213" s="11"/>
       <c r="H213" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B214" s="7">
         <v>3</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D214" s="16"/>
       <c r="E214" s="27"/>
       <c r="F214" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G214" s="11"/>
       <c r="H214" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B215" s="7">
         <v>3</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D215" s="16"/>
       <c r="E215" s="27"/>
       <c r="F215" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G215" s="11"/>
       <c r="H215" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -9273,296 +9259,296 @@
         <v>2</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D216" s="19"/>
       <c r="E216" s="8"/>
       <c r="F216" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G216" s="9"/>
       <c r="H216" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B217" s="7">
         <v>3</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="27"/>
       <c r="F217" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G217" s="11"/>
       <c r="H217" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B218" s="7">
         <v>3</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="27"/>
       <c r="F218" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G218" s="11"/>
       <c r="H218" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B219" s="7">
         <v>3</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D219" s="16"/>
       <c r="E219" s="27"/>
       <c r="F219" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G219" s="11"/>
       <c r="H219" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B220" s="7">
         <v>3</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D220" s="16"/>
       <c r="E220" s="27"/>
       <c r="F220" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G220" s="11"/>
       <c r="H220" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B221" s="7">
         <v>3</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D221" s="16"/>
       <c r="E221" s="27"/>
       <c r="F221" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G221" s="11"/>
       <c r="H221" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B222" s="7">
         <v>3</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D222" s="16"/>
       <c r="E222" s="27"/>
       <c r="F222" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G222" s="11"/>
       <c r="H222" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B223" s="7">
         <v>3</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D223" s="16"/>
       <c r="E223" s="27"/>
       <c r="F223" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G223" s="11"/>
       <c r="H223" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B224" s="7">
         <v>3</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D224" s="16"/>
       <c r="E224" s="27"/>
       <c r="F224" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G224" s="11"/>
       <c r="H224" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B225" s="7">
         <v>3</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D225" s="16"/>
       <c r="E225" s="27"/>
       <c r="F225" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G225" s="11"/>
       <c r="H225" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B226" s="7">
         <v>3</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D226" s="16"/>
       <c r="E226" s="27"/>
       <c r="F226" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G226" s="11"/>
       <c r="H226" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B227" s="7">
         <v>3</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D227" s="16"/>
       <c r="E227" s="27"/>
       <c r="F227" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G227" s="11"/>
       <c r="H227" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B228" s="7">
         <v>3</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D228" s="16"/>
       <c r="E228" s="27"/>
       <c r="F228" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G228" s="11"/>
       <c r="H228" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B229" s="7">
         <v>3</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D229" s="16"/>
       <c r="E229" s="27"/>
       <c r="F229" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G229" s="11"/>
       <c r="H229" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B230" s="7">
         <v>3</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D230" s="16"/>
       <c r="E230" s="27"/>
       <c r="F230" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G230" s="11"/>
       <c r="H230" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9571,136 +9557,136 @@
         <v>2</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D231" s="19"/>
       <c r="E231" s="8"/>
       <c r="F231" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B232" s="7">
         <v>3</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D232" s="16"/>
       <c r="E232" s="27"/>
       <c r="F232" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G232" s="11"/>
       <c r="H232" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B233" s="7">
         <v>3</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D233" s="16"/>
       <c r="E233" s="27"/>
       <c r="F233" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G233" s="11"/>
       <c r="H233" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B234" s="7">
         <v>3</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D234" s="16"/>
       <c r="E234" s="27"/>
       <c r="F234" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G234" s="11"/>
       <c r="H234" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B235" s="7">
         <v>3</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D235" s="16"/>
       <c r="E235" s="27"/>
       <c r="F235" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G235" s="11"/>
       <c r="H235" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B236" s="7">
         <v>3</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D236" s="16"/>
       <c r="E236" s="27"/>
       <c r="F236" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G236" s="11"/>
       <c r="H236" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B237" s="7">
         <v>3</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D237" s="16"/>
       <c r="E237" s="27"/>
       <c r="F237" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G237" s="11"/>
       <c r="H237" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -9709,15 +9695,15 @@
         <v>1</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D238" s="21"/>
       <c r="E238" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F238" s="11"/>
       <c r="G238" s="13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H238" s="11"/>
     </row>
@@ -9727,376 +9713,376 @@
         <v>2</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D239" s="19"/>
       <c r="E239" s="8"/>
       <c r="F239" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G239" s="9"/>
       <c r="H239" s="9" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B240" s="7">
         <v>3</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D240" s="16"/>
       <c r="E240" s="27"/>
       <c r="F240" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G240" s="11"/>
       <c r="H240" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B241" s="7">
         <v>3</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D241" s="16"/>
       <c r="E241" s="27"/>
       <c r="F241" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G241" s="11"/>
       <c r="H241" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B242" s="7">
         <v>3</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D242" s="16"/>
       <c r="E242" s="27"/>
       <c r="F242" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G242" s="11"/>
       <c r="H242" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B243" s="7">
         <v>3</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D243" s="16"/>
       <c r="E243" s="27"/>
       <c r="F243" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G243" s="11"/>
       <c r="H243" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B244" s="7">
         <v>3</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D244" s="16"/>
       <c r="E244" s="27"/>
       <c r="F244" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G244" s="11"/>
       <c r="H244" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B245" s="7">
         <v>3</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D245" s="16"/>
       <c r="E245" s="27"/>
       <c r="F245" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G245" s="11"/>
       <c r="H245" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B246" s="7">
         <v>3</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D246" s="16"/>
       <c r="E246" s="27"/>
       <c r="F246" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G246" s="11"/>
       <c r="H246" s="11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B247" s="7">
         <v>3</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D247" s="16"/>
       <c r="E247" s="27"/>
       <c r="F247" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G247" s="11"/>
       <c r="H247" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B248" s="7">
         <v>3</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D248" s="16"/>
       <c r="E248" s="27"/>
       <c r="F248" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G248" s="11"/>
       <c r="H248" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B249" s="7">
         <v>3</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D249" s="16"/>
       <c r="E249" s="27"/>
       <c r="F249" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G249" s="11"/>
       <c r="H249" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B250" s="7">
         <v>3</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D250" s="16"/>
       <c r="E250" s="27"/>
       <c r="F250" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G250" s="11"/>
       <c r="H250" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B251" s="7">
         <v>3</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D251" s="16"/>
       <c r="E251" s="27"/>
       <c r="F251" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G251" s="11"/>
       <c r="H251" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B252" s="7">
         <v>3</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D252" s="16"/>
       <c r="E252" s="27"/>
       <c r="F252" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G252" s="11"/>
       <c r="H252" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B253" s="7">
         <v>3</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D253" s="16"/>
       <c r="E253" s="27"/>
       <c r="F253" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G253" s="11"/>
       <c r="H253" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B254" s="7">
         <v>3</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D254" s="16"/>
       <c r="E254" s="27"/>
       <c r="F254" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G254" s="11"/>
       <c r="H254" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B255" s="7">
         <v>3</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D255" s="16"/>
       <c r="E255" s="27"/>
       <c r="F255" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G255" s="11"/>
       <c r="H255" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B256" s="7">
         <v>3</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D256" s="16"/>
       <c r="E256" s="27"/>
       <c r="F256" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G256" s="11"/>
       <c r="H256" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B257" s="7">
         <v>3</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D257" s="16"/>
       <c r="E257" s="27"/>
       <c r="F257" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G257" s="11"/>
       <c r="H257" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -10105,15 +10091,15 @@
         <v>1</v>
       </c>
       <c r="C258" s="21" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F258" s="11"/>
       <c r="G258" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H258" s="11"/>
     </row>
@@ -10123,56 +10109,56 @@
         <v>2</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D259" s="19"/>
       <c r="E259" s="8"/>
       <c r="F259" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G259" s="9"/>
       <c r="H259" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B260" s="7">
         <v>3</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D260" s="16"/>
       <c r="E260" s="27"/>
       <c r="F260" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G260" s="11"/>
       <c r="H260" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B261" s="7">
         <v>3</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D261" s="16"/>
       <c r="E261" s="27"/>
       <c r="F261" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G261" s="11"/>
       <c r="H261" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -10181,276 +10167,276 @@
         <v>2</v>
       </c>
       <c r="C262" s="22" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D262" s="22"/>
       <c r="E262" s="22"/>
       <c r="F262" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G262" s="9"/>
       <c r="H262" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B263" s="7">
         <v>3</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D263" s="16"/>
       <c r="E263" s="27"/>
       <c r="F263" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G263" s="11"/>
       <c r="H263" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B264" s="7">
         <v>3</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D264" s="16"/>
       <c r="E264" s="27"/>
       <c r="F264" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G264" s="11"/>
       <c r="H264" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B265" s="7">
         <v>3</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D265" s="16"/>
       <c r="E265" s="27"/>
       <c r="F265" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G265" s="11"/>
       <c r="H265" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B266" s="7">
         <v>3</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D266" s="16"/>
       <c r="E266" s="27"/>
       <c r="F266" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G266" s="11"/>
       <c r="H266" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B267" s="7">
         <v>3</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D267" s="16"/>
       <c r="E267" s="27"/>
       <c r="F267" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G267" s="11"/>
       <c r="H267" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B268" s="7">
         <v>3</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D268" s="16"/>
       <c r="E268" s="27"/>
       <c r="F268" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G268" s="11"/>
       <c r="H268" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B269" s="7">
         <v>3</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D269" s="16"/>
       <c r="E269" s="27"/>
       <c r="F269" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G269" s="11"/>
       <c r="H269" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B270" s="7">
         <v>3</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D270" s="16"/>
       <c r="E270" s="27"/>
       <c r="F270" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G270" s="11"/>
       <c r="H270" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B271" s="7">
         <v>3</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D271" s="16"/>
       <c r="E271" s="27"/>
       <c r="F271" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G271" s="11"/>
       <c r="H271" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B272" s="7">
         <v>3</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D272" s="16"/>
       <c r="E272" s="27"/>
       <c r="F272" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G272" s="11"/>
       <c r="H272" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B273" s="7">
         <v>3</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D273" s="16"/>
       <c r="E273" s="27"/>
       <c r="F273" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G273" s="11"/>
       <c r="H273" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B274" s="7">
         <v>3</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D274" s="16"/>
       <c r="E274" s="27"/>
       <c r="F274" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G274" s="11"/>
       <c r="H274" s="11" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B275" s="7">
         <v>3</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D275" s="16"/>
       <c r="E275" s="27"/>
       <c r="F275" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G275" s="11"/>
       <c r="H275" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10459,15 +10445,15 @@
         <v>1</v>
       </c>
       <c r="C276" s="21" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D276" s="21"/>
       <c r="E276" s="17" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F276" s="11"/>
       <c r="G276" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -10476,76 +10462,76 @@
         <v>2</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D277" s="19"/>
       <c r="E277" s="8"/>
       <c r="F277" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G277" s="9"/>
       <c r="H277" s="9" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B278" s="14">
         <v>3</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D278" s="16"/>
       <c r="E278" s="27"/>
       <c r="F278" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G278" s="11"/>
       <c r="H278" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A279" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B279" s="14">
         <v>3</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D279" s="16"/>
       <c r="E279" s="27"/>
       <c r="F279" s="11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G279" s="11"/>
       <c r="H279" s="11" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B280" s="14">
         <v>3</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D280" s="16"/>
       <c r="E280" s="27"/>
       <c r="F280" s="11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G280" s="11"/>
       <c r="H280" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -10554,236 +10540,236 @@
         <v>2</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D281" s="19"/>
       <c r="E281" s="8"/>
       <c r="F281" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G281" s="9"/>
       <c r="H281" s="9" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A282" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B282" s="14">
         <v>3</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D282" s="16"/>
       <c r="E282" s="27"/>
       <c r="F282" s="11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G282" s="11"/>
       <c r="H282" s="11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B283" s="14">
         <v>3</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D283" s="16"/>
       <c r="E283" s="27"/>
       <c r="F283" s="11" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G283" s="11"/>
       <c r="H283" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B284" s="14">
         <v>3</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D284" s="16"/>
       <c r="E284" s="27"/>
       <c r="F284" s="11" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G284" s="11"/>
       <c r="H284" s="11" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B285" s="14">
         <v>3</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D285" s="16"/>
       <c r="E285" s="27"/>
       <c r="F285" s="11" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G285" s="11"/>
       <c r="H285" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A286" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B286" s="14">
         <v>3</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D286" s="16"/>
       <c r="E286" s="27"/>
       <c r="F286" s="11" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G286" s="11"/>
       <c r="H286" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B287" s="14">
         <v>3</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D287" s="16"/>
       <c r="E287" s="27"/>
       <c r="F287" s="11" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G287" s="11"/>
       <c r="H287" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B288" s="14">
         <v>3</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D288" s="16"/>
       <c r="E288" s="27"/>
       <c r="F288" s="11" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G288" s="11"/>
       <c r="H288" s="11" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A289" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B289" s="14">
         <v>3</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D289" s="16"/>
       <c r="E289" s="27"/>
       <c r="F289" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G289" s="11"/>
       <c r="H289" s="11" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A290" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B290" s="14">
         <v>3</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D290" s="16"/>
       <c r="E290" s="27"/>
       <c r="F290" s="11" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G290" s="11"/>
       <c r="H290" s="11" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B291" s="14">
         <v>3</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D291" s="16"/>
       <c r="E291" s="27"/>
       <c r="F291" s="11" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G291" s="11"/>
       <c r="H291" s="11" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B292" s="14">
         <v>3</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D292" s="16"/>
       <c r="E292" s="27"/>
       <c r="F292" s="11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G292" s="11"/>
       <c r="H292" s="11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10792,56 +10778,56 @@
         <v>2</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D293" s="19"/>
       <c r="E293" s="8"/>
       <c r="F293" s="9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G293" s="9"/>
       <c r="H293" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A294" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B294" s="14">
         <v>3</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D294" s="16"/>
       <c r="E294" s="27"/>
       <c r="F294" s="11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G294" s="11"/>
       <c r="H294" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B295" s="14">
         <v>3</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D295" s="16"/>
       <c r="E295" s="27"/>
       <c r="F295" s="11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G295" s="11"/>
       <c r="H295" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10850,15 +10836,15 @@
         <v>1</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D296" s="21"/>
       <c r="E296" s="17" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F296" s="11"/>
       <c r="G296" s="13" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H296" s="11"/>
     </row>
@@ -10868,76 +10854,76 @@
         <v>2</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D297" s="19"/>
       <c r="E297" s="8"/>
       <c r="F297" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G297" s="9"/>
       <c r="H297" s="9" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B298" s="14">
         <v>3</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D298" s="16"/>
       <c r="E298" s="27"/>
       <c r="F298" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G298" s="11"/>
       <c r="H298" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B299" s="14">
         <v>3</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D299" s="16"/>
       <c r="E299" s="27"/>
       <c r="F299" s="11" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G299" s="11"/>
       <c r="H299" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B300" s="14">
         <v>3</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D300" s="16"/>
       <c r="E300" s="27"/>
       <c r="F300" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G300" s="11"/>
       <c r="H300" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10946,56 +10932,56 @@
         <v>2</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D301" s="19"/>
       <c r="E301" s="8"/>
       <c r="F301" s="9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G301" s="9"/>
       <c r="H301" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B302" s="14">
         <v>3</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D302" s="16"/>
       <c r="E302" s="27"/>
       <c r="F302" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G302" s="11"/>
       <c r="H302" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B303" s="14">
         <v>3</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D303" s="16"/>
       <c r="E303" s="27"/>
       <c r="F303" s="11" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G303" s="11"/>
       <c r="H303" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -11004,15 +10990,15 @@
         <v>1</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D304" s="21"/>
       <c r="E304" s="17" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F304" s="11"/>
       <c r="G304" s="13" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H304" s="11"/>
     </row>
@@ -11022,78 +11008,78 @@
         <v>2</v>
       </c>
       <c r="C305" s="31" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E305" s="53"/>
       <c r="F305" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G305" s="32"/>
       <c r="H305" s="9" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A306" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B306" s="51">
         <v>3</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D306" s="16"/>
       <c r="E306" s="27"/>
       <c r="F306" s="52" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G306" s="50"/>
       <c r="H306" s="52" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A307" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B307" s="51">
         <v>3</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D307" s="16"/>
       <c r="E307" s="27"/>
       <c r="F307" s="52" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G307" s="50"/>
       <c r="H307" s="52" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A308" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B308" s="51">
         <v>3</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D308" s="16"/>
       <c r="E308" s="27"/>
       <c r="F308" s="52" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G308" s="50"/>
       <c r="H308" s="52" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -11102,78 +11088,78 @@
         <v>2</v>
       </c>
       <c r="C309" s="31" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D309" s="30" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E309" s="53"/>
       <c r="F309" s="9" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G309" s="32"/>
       <c r="H309" s="9" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B310" s="51">
         <v>3</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D310" s="16"/>
       <c r="E310" s="27"/>
       <c r="F310" s="52" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G310" s="50"/>
       <c r="H310" s="52" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B311" s="51">
         <v>3</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D311" s="16"/>
       <c r="E311" s="27"/>
       <c r="F311" s="52" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G311" s="50"/>
       <c r="H311" s="52" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A312" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B312" s="51">
         <v>3</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D312" s="16"/>
       <c r="E312" s="27"/>
       <c r="F312" s="52" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G312" s="50"/>
       <c r="H312" s="52" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -11182,118 +11168,118 @@
         <v>2</v>
       </c>
       <c r="C313" s="31" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E313" s="53"/>
       <c r="F313" s="9" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G313" s="32"/>
       <c r="H313" s="9" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B314" s="51">
         <v>3</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D314" s="16"/>
       <c r="E314" s="27"/>
       <c r="F314" s="52" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G314" s="50"/>
       <c r="H314" s="52" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B315" s="51">
         <v>3</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D315" s="16"/>
       <c r="E315" s="27"/>
       <c r="F315" s="52" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="G315" s="50"/>
       <c r="H315" s="52" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B316" s="51">
         <v>3</v>
       </c>
       <c r="C316" s="30" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D316" s="16"/>
       <c r="E316" s="27"/>
       <c r="F316" s="52" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G316" s="50"/>
       <c r="H316" s="52" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B317" s="51">
         <v>3</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D317" s="16"/>
       <c r="E317" s="27"/>
       <c r="F317" s="52" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="G317" s="50"/>
       <c r="H317" s="52" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B318" s="51">
         <v>3</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D318" s="16"/>
       <c r="E318" s="27"/>
       <c r="F318" s="52" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G318" s="50"/>
       <c r="H318" s="52" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -11302,98 +11288,98 @@
         <v>2</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D319" s="30" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E319" s="53"/>
       <c r="F319" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G319" s="32"/>
       <c r="H319" s="9" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A320" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B320" s="51">
         <v>3</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D320" s="16"/>
       <c r="E320" s="27"/>
       <c r="F320" s="52" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="G320" s="50"/>
       <c r="H320" s="52" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B321" s="51">
         <v>3</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D321" s="16"/>
       <c r="E321" s="27"/>
       <c r="F321" s="52" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G321" s="50"/>
       <c r="H321" s="52" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B322" s="51">
         <v>3</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D322" s="16"/>
       <c r="E322" s="27"/>
       <c r="F322" s="52" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="G322" s="50"/>
       <c r="H322" s="52" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B323" s="51">
         <v>3</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D323" s="16"/>
       <c r="E323" s="27"/>
       <c r="F323" s="52" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="G323" s="50"/>
       <c r="H323" s="52" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -11402,98 +11388,98 @@
         <v>2</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E324" s="53"/>
       <c r="F324" s="9" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G324" s="32"/>
       <c r="H324" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B325" s="51">
         <v>3</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D325" s="16"/>
       <c r="E325" s="27"/>
       <c r="F325" s="52" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="G325" s="50"/>
       <c r="H325" s="52" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B326" s="51">
         <v>3</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D326" s="16"/>
       <c r="E326" s="27"/>
       <c r="F326" s="52" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G326" s="50"/>
       <c r="H326" s="52" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B327" s="51">
         <v>3</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D327" s="16"/>
       <c r="E327" s="27"/>
       <c r="F327" s="52" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G327" s="50"/>
       <c r="H327" s="52" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A328" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B328" s="51">
         <v>3</v>
       </c>
       <c r="C328" s="30" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D328" s="16"/>
       <c r="E328" s="27"/>
       <c r="F328" s="52" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G328" s="50"/>
       <c r="H328" s="52" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -11502,15 +11488,15 @@
         <v>1</v>
       </c>
       <c r="C329" s="21" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D329" s="21"/>
       <c r="E329" s="17" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F329" s="11"/>
       <c r="G329" s="13" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H329" s="11"/>
     </row>
@@ -11520,16 +11506,16 @@
         <v>2</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D330" s="19"/>
       <c r="E330" s="8"/>
       <c r="F330" s="9" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G330" s="9"/>
       <c r="H330" s="9" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -11538,156 +11524,156 @@
         <v>3</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D331" s="33"/>
       <c r="E331" s="53"/>
       <c r="F331" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G331" s="32"/>
       <c r="H331" s="9" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A332" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B332" s="51">
         <v>4</v>
       </c>
       <c r="C332" s="30" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D332" s="16"/>
       <c r="E332" s="27"/>
       <c r="F332" s="52" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G332" s="50"/>
       <c r="H332" s="52" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A333" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B333" s="51">
         <v>4</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D333" s="16"/>
       <c r="E333" s="27"/>
       <c r="F333" s="52" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G333" s="50"/>
       <c r="H333" s="52" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B334" s="51">
         <v>4</v>
       </c>
       <c r="C334" s="30" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D334" s="16"/>
       <c r="E334" s="27"/>
       <c r="F334" s="52" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G334" s="50"/>
       <c r="H334" s="52" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B335" s="51">
         <v>4</v>
       </c>
       <c r="C335" s="30" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D335" s="16"/>
       <c r="E335" s="27"/>
       <c r="F335" s="52" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G335" s="50"/>
       <c r="H335" s="52" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B336" s="51">
         <v>4</v>
       </c>
       <c r="C336" s="30" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D336" s="16"/>
       <c r="E336" s="27"/>
       <c r="F336" s="52" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G336" s="50"/>
       <c r="H336" s="52" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="337" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B337" s="51">
         <v>4</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D337" s="16"/>
       <c r="E337" s="27"/>
       <c r="F337" s="52" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G337" s="50"/>
       <c r="H337" s="52" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="338" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B338" s="51">
         <v>4</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D338" s="16"/>
       <c r="E338" s="27"/>
       <c r="F338" s="52" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G338" s="50"/>
       <c r="H338" s="52" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="339" spans="1:159" x14ac:dyDescent="0.3">
@@ -11696,16 +11682,16 @@
         <v>2</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D339" s="19"/>
       <c r="E339" s="8"/>
       <c r="F339" s="9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G339" s="9"/>
       <c r="H339" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="340" spans="1:159" s="35" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -11714,16 +11700,16 @@
         <v>3</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D340" s="36"/>
       <c r="E340" s="53"/>
       <c r="F340" s="9" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="G340" s="32"/>
       <c r="H340" s="9" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I340" s="37"/>
       <c r="J340" s="37"/>
@@ -11879,122 +11865,122 @@
     </row>
     <row r="341" spans="1:159" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A341" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B341" s="51">
         <v>4</v>
       </c>
       <c r="C341" s="30" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D341" s="16"/>
       <c r="E341" s="27"/>
       <c r="F341" s="52" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G341" s="50"/>
       <c r="H341" s="52" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="342" spans="1:159" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A342" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B342" s="51">
         <v>4</v>
       </c>
       <c r="C342" s="30" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D342" s="16"/>
       <c r="E342" s="27"/>
       <c r="F342" s="52" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="G342" s="50"/>
       <c r="H342" s="52" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="343" spans="1:159" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A343" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B343" s="51">
         <v>4</v>
       </c>
       <c r="C343" s="30" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D343" s="16"/>
       <c r="E343" s="27"/>
       <c r="F343" s="52" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G343" s="50"/>
       <c r="H343" s="52" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="344" spans="1:159" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A344" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B344" s="51">
         <v>4</v>
       </c>
       <c r="C344" s="30" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D344" s="16"/>
       <c r="E344" s="27"/>
       <c r="F344" s="52" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G344" s="50"/>
       <c r="H344" s="52" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="345" spans="1:159" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A345" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B345" s="51">
         <v>4</v>
       </c>
       <c r="C345" s="30" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D345" s="16"/>
       <c r="E345" s="27"/>
       <c r="F345" s="52" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G345" s="50"/>
       <c r="H345" s="52" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="346" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B346" s="51">
         <v>4</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D346" s="16"/>
       <c r="E346" s="27"/>
       <c r="F346" s="52" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="G346" s="50"/>
       <c r="H346" s="52" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="347" spans="1:159" x14ac:dyDescent="0.3">
@@ -12003,16 +11989,16 @@
         <v>2</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D347" s="19"/>
       <c r="E347" s="8"/>
       <c r="F347" s="9" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G347" s="9"/>
       <c r="H347" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="348" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
@@ -12021,96 +12007,96 @@
         <v>3</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D348" s="36"/>
       <c r="E348" s="53"/>
       <c r="F348" s="9" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G348" s="38"/>
       <c r="H348" s="9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="349" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B349" s="51">
         <v>4</v>
       </c>
       <c r="C349" s="30" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D349" s="16"/>
       <c r="E349" s="27"/>
       <c r="F349" s="52" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="G349" s="50"/>
       <c r="H349" s="52" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="350" spans="1:159" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A350" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B350" s="51">
         <v>4</v>
       </c>
       <c r="C350" s="30" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D350" s="16"/>
       <c r="E350" s="27"/>
       <c r="F350" s="52" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G350" s="50"/>
       <c r="H350" s="52" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="351" spans="1:159" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A351" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B351" s="51">
         <v>4</v>
       </c>
       <c r="C351" s="30" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D351" s="16"/>
       <c r="E351" s="27"/>
       <c r="F351" s="52" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G351" s="50"/>
       <c r="H351" s="52" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="352" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B352" s="51">
         <v>4</v>
       </c>
       <c r="C352" s="30" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D352" s="16"/>
       <c r="E352" s="27"/>
       <c r="F352" s="52" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G352" s="50"/>
       <c r="H352" s="52" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -12119,56 +12105,56 @@
         <v>3</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D353" s="36"/>
       <c r="E353" s="39"/>
       <c r="F353" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G353" s="38"/>
       <c r="H353" s="9" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B354" s="14">
         <v>4</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="25"/>
       <c r="F354" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G354" s="11"/>
       <c r="H354" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A355" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B355" s="14">
         <v>4</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D355" s="10"/>
       <c r="E355" s="25"/>
       <c r="F355" s="11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G355" s="11"/>
       <c r="H355" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -12177,16 +12163,16 @@
         <v>2</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D356" s="19"/>
       <c r="E356" s="8"/>
       <c r="F356" s="9" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G356" s="9"/>
       <c r="H356" s="9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -12195,36 +12181,36 @@
         <v>3</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="22"/>
       <c r="F357" s="9" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G357" s="9"/>
       <c r="H357" s="9" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="358" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A358" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B358" s="14">
         <v>4</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D358" s="10"/>
       <c r="E358" s="25"/>
       <c r="F358" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G358" s="11"/>
       <c r="H358" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -12233,56 +12219,56 @@
         <v>3</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="22"/>
       <c r="F359" s="9" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G359" s="9"/>
       <c r="H359" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A360" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B360" s="14">
         <v>4</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D360" s="10"/>
       <c r="E360" s="25"/>
       <c r="F360" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="G360" s="11"/>
       <c r="H360" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B361" s="14">
         <v>4</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D361" s="10"/>
       <c r="E361" s="25"/>
       <c r="F361" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G361" s="11"/>
       <c r="H361" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -12291,76 +12277,76 @@
         <v>3</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="22"/>
       <c r="F362" s="9" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G362" s="9"/>
       <c r="H362" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A363" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B363" s="14">
         <v>4</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D363" s="10"/>
       <c r="E363" s="25"/>
       <c r="F363" s="11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G363" s="11"/>
       <c r="H363" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A364" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B364" s="14">
         <v>4</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D364" s="10"/>
       <c r="E364" s="25"/>
       <c r="F364" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="G364" s="11"/>
       <c r="H364" s="11" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B365" s="14">
         <v>4</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D365" s="10"/>
       <c r="E365" s="25"/>
       <c r="F365" s="11" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G365" s="11"/>
       <c r="H365" s="11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -12369,16 +12355,16 @@
         <v>2</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D366" s="19"/>
       <c r="E366" s="8"/>
       <c r="F366" s="9" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G366" s="9"/>
       <c r="H366" s="9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -12387,116 +12373,116 @@
         <v>3</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="22"/>
       <c r="F367" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G367" s="9"/>
       <c r="H367" s="9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A368" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B368" s="14">
         <v>4</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D368" s="10"/>
       <c r="E368" s="25"/>
       <c r="F368" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G368" s="11"/>
       <c r="H368" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A369" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B369" s="14">
         <v>4</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D369" s="10"/>
       <c r="E369" s="25"/>
       <c r="F369" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G369" s="11"/>
       <c r="H369" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B370" s="14">
         <v>4</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D370" s="10"/>
       <c r="E370" s="25"/>
       <c r="F370" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G370" s="11"/>
       <c r="H370" s="11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A371" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B371" s="14">
         <v>4</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D371" s="10"/>
       <c r="E371" s="25"/>
       <c r="F371" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G371" s="11"/>
       <c r="H371" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A372" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B372" s="14">
         <v>4</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D372" s="10"/>
       <c r="E372" s="25"/>
       <c r="F372" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G372" s="11"/>
       <c r="H372" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -12505,96 +12491,96 @@
         <v>3</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="22"/>
       <c r="F373" s="9" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G373" s="9"/>
       <c r="H373" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A374" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B374" s="14">
         <v>4</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D374" s="10"/>
       <c r="E374" s="25"/>
       <c r="F374" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G374" s="11"/>
       <c r="H374" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A375" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B375" s="14">
         <v>4</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D375" s="10"/>
       <c r="E375" s="25"/>
       <c r="F375" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G375" s="11"/>
       <c r="H375" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A376" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B376" s="14">
         <v>4</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D376" s="10"/>
       <c r="E376" s="25"/>
       <c r="F376" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G376" s="11"/>
       <c r="H376" s="11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A377" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B377" s="14">
         <v>4</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D377" s="10"/>
       <c r="E377" s="25"/>
       <c r="F377" s="11" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G377" s="11"/>
       <c r="H377" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -12603,16 +12589,16 @@
         <v>2</v>
       </c>
       <c r="C378" s="19" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D378" s="19"/>
       <c r="E378" s="8"/>
       <c r="F378" s="9" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="G378" s="9"/>
       <c r="H378" s="9" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -12621,96 +12607,96 @@
         <v>3</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="22"/>
       <c r="F379" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G379" s="9"/>
       <c r="H379" s="9" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A380" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B380" s="14">
         <v>4</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D380" s="10"/>
       <c r="E380" s="25"/>
       <c r="F380" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G380" s="11"/>
       <c r="H380" s="11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A381" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B381" s="14">
         <v>4</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D381" s="10"/>
       <c r="E381" s="25"/>
       <c r="F381" s="11" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G381" s="11"/>
       <c r="H381" s="11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="382" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A382" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B382" s="14">
         <v>4</v>
       </c>
       <c r="C382" s="10" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D382" s="10"/>
       <c r="E382" s="25"/>
       <c r="F382" s="11" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="G382" s="11"/>
       <c r="H382" s="11" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="383" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A383" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B383" s="14">
         <v>4</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D383" s="10"/>
       <c r="E383" s="25"/>
       <c r="F383" s="11" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G383" s="11"/>
       <c r="H383" s="11" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -12719,36 +12705,36 @@
         <v>3</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="22"/>
       <c r="F384" s="9" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G384" s="9"/>
       <c r="H384" s="9" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="385" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A385" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B385" s="14">
         <v>4</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D385" s="10"/>
       <c r="E385" s="25"/>
       <c r="F385" s="11" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G385" s="11"/>
       <c r="H385" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -12757,36 +12743,36 @@
         <v>3</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="22"/>
       <c r="F386" s="9" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="G386" s="9"/>
       <c r="H386" s="9" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A387" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B387" s="14">
         <v>4</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D387" s="10"/>
       <c r="E387" s="25"/>
       <c r="F387" s="11" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G387" s="11"/>
       <c r="H387" s="11" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -12795,76 +12781,76 @@
         <v>3</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="22"/>
       <c r="F388" s="9" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="G388" s="9"/>
       <c r="H388" s="9" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A389" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B389" s="14">
         <v>4</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D389" s="10"/>
       <c r="E389" s="25"/>
       <c r="F389" s="11" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G389" s="11"/>
       <c r="H389" s="11" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A390" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B390" s="14">
         <v>4</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D390" s="10"/>
       <c r="E390" s="25"/>
       <c r="F390" s="11" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G390" s="11"/>
       <c r="H390" s="11" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A391" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B391" s="14">
         <v>4</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D391" s="10"/>
       <c r="E391" s="25"/>
       <c r="F391" s="11" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G391" s="11"/>
       <c r="H391" s="11" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -12873,56 +12859,56 @@
         <v>3</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="22"/>
       <c r="F392" s="9" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G392" s="9"/>
       <c r="H392" s="9" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="393" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A393" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B393" s="14">
         <v>4</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D393" s="10"/>
       <c r="E393" s="25"/>
       <c r="F393" s="11" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G393" s="11"/>
       <c r="H393" s="11" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A394" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B394" s="14">
         <v>4</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D394" s="10"/>
       <c r="E394" s="25"/>
       <c r="F394" s="11" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="G394" s="11"/>
       <c r="H394" s="11" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -12931,56 +12917,56 @@
         <v>3</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="22"/>
       <c r="F395" s="9" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G395" s="9"/>
       <c r="H395" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="396" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A396" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B396" s="14">
         <v>4</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D396" s="10"/>
       <c r="E396" s="25"/>
       <c r="F396" s="11" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G396" s="11"/>
       <c r="H396" s="11" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A397" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B397" s="14">
         <v>4</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D397" s="10"/>
       <c r="E397" s="25"/>
       <c r="F397" s="11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G397" s="11"/>
       <c r="H397" s="11" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -12989,76 +12975,76 @@
         <v>3</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="22"/>
       <c r="F398" s="9" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G398" s="9"/>
       <c r="H398" s="9" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A399" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B399" s="14">
         <v>4</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D399" s="10"/>
       <c r="E399" s="25"/>
       <c r="F399" s="11" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G399" s="11"/>
       <c r="H399" s="11" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A400" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B400" s="14">
         <v>4</v>
       </c>
       <c r="C400" s="10" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D400" s="10"/>
       <c r="E400" s="25"/>
       <c r="F400" s="11" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G400" s="11"/>
       <c r="H400" s="11" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A401" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B401" s="14">
         <v>4</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D401" s="10"/>
       <c r="E401" s="25"/>
       <c r="F401" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G401" s="11"/>
       <c r="H401" s="11" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -13067,16 +13053,16 @@
         <v>2</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D402" s="19"/>
       <c r="E402" s="8"/>
       <c r="F402" s="9" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G402" s="9"/>
       <c r="H402" s="9" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13085,56 +13071,56 @@
         <v>3</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="22"/>
       <c r="F403" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G403" s="9"/>
       <c r="H403" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="404" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B404" s="14">
         <v>4</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D404" s="10"/>
       <c r="E404" s="25"/>
       <c r="F404" s="11" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="G404" s="11"/>
       <c r="H404" s="11" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B405" s="14">
         <v>4</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D405" s="10"/>
       <c r="E405" s="25"/>
       <c r="F405" s="11" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G405" s="11"/>
       <c r="H405" s="11" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -13143,16 +13129,16 @@
         <v>2</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D406" s="19"/>
       <c r="E406" s="8"/>
       <c r="F406" s="9" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G406" s="9"/>
       <c r="H406" s="9" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -13161,136 +13147,136 @@
         <v>3</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="22"/>
       <c r="F407" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G407" s="9"/>
       <c r="H407" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="408" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A408" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B408" s="14">
         <v>4</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D408" s="10"/>
       <c r="E408" s="25"/>
       <c r="F408" s="11" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G408" s="11"/>
       <c r="H408" s="11" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="409" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B409" s="14">
         <v>4</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D409" s="10"/>
       <c r="E409" s="25"/>
       <c r="F409" s="11" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G409" s="11"/>
       <c r="H409" s="11" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B410" s="14">
         <v>4</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D410" s="10"/>
       <c r="E410" s="25"/>
       <c r="F410" s="11" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="G410" s="11"/>
       <c r="H410" s="11" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A411" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B411" s="14">
         <v>4</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D411" s="10"/>
       <c r="E411" s="25"/>
       <c r="F411" s="11" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G411" s="11"/>
       <c r="H411" s="11" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A412" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B412" s="14">
         <v>4</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D412" s="10"/>
       <c r="E412" s="25"/>
       <c r="F412" s="11" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="G412" s="11"/>
       <c r="H412" s="11" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A413" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B413" s="14">
         <v>4</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D413" s="10"/>
       <c r="E413" s="25"/>
       <c r="F413" s="11" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G413" s="11"/>
       <c r="H413" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>

--- a/tools/excel/aicpa/SOC2_2017_with_rev_2022.xlsx
+++ b/tools/excel/aicpa/SOC2_2017_with_rev_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\aicpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E384538-299D-441D-A5BF-76C2C42285FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90082A1D-8523-4421-86B4-5BD193BA1A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19210" yWindow="-21710" windowWidth="38620" windowHeight="21820" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="1311">
   <si>
     <t>type</t>
   </si>
@@ -4227,7 +4227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4325,9 +4325,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4680,7 +4677,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4709,7 +4706,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4794,22 +4791,22 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="45" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>1200</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -4897,22 +4894,22 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="45" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>1200</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -4926,8 +4923,8 @@
   <dimension ref="A1:FC413"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L48" sqref="L48"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A348" sqref="A348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6893,33 +6890,33 @@
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="25"/>
-      <c r="F97" s="44" t="s">
+      <c r="F97" s="43" t="s">
         <v>1189</v>
       </c>
       <c r="G97" s="11"/>
-      <c r="H97" s="44" t="s">
+      <c r="H97" s="43" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B98" s="40">
-        <v>3</v>
-      </c>
-      <c r="C98" s="41" t="s">
+      <c r="A98" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="39">
+        <v>3</v>
+      </c>
+      <c r="C98" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="D98" s="41" t="s">
+      <c r="D98" s="40" t="s">
         <v>1192</v>
       </c>
       <c r="E98" s="25"/>
-      <c r="F98" s="42" t="s">
+      <c r="F98" s="41" t="s">
         <v>1190</v>
       </c>
       <c r="G98" s="11"/>
-      <c r="H98" s="42" t="s">
+      <c r="H98" s="41" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -6930,10 +6927,10 @@
       <c r="B99" s="7">
         <v>3</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D99" s="40" t="s">
         <v>1191</v>
       </c>
       <c r="E99" s="25"/>
@@ -6952,10 +6949,10 @@
       <c r="B100" s="7">
         <v>3</v>
       </c>
-      <c r="C100" s="43" t="s">
+      <c r="C100" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D100" s="40" t="s">
         <v>1193</v>
       </c>
       <c r="E100" s="25"/>
@@ -6974,10 +6971,10 @@
       <c r="B101" s="7">
         <v>3</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="42" t="s">
         <v>1195</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D101" s="40" t="s">
         <v>1194</v>
       </c>
       <c r="E101" s="25"/>
@@ -7729,7 +7726,7 @@
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="25"/>
-      <c r="F138" s="44" t="s">
+      <c r="F138" s="43" t="s">
         <v>1175</v>
       </c>
       <c r="G138" s="11"/>
@@ -7749,7 +7746,7 @@
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="25"/>
-      <c r="F139" s="44" t="s">
+      <c r="F139" s="43" t="s">
         <v>1176</v>
       </c>
       <c r="G139" s="11"/>
@@ -7769,7 +7766,7 @@
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="25"/>
-      <c r="F140" s="44" t="s">
+      <c r="F140" s="43" t="s">
         <v>1177</v>
       </c>
       <c r="G140" s="11"/>
@@ -7789,7 +7786,7 @@
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="25"/>
-      <c r="F141" s="44" t="s">
+      <c r="F141" s="43" t="s">
         <v>1178</v>
       </c>
       <c r="G141" s="11"/>
@@ -8535,7 +8532,7 @@
       <c r="C179" s="10" t="s">
         <v>1174</v>
       </c>
-      <c r="D179" s="41" t="s">
+      <c r="D179" s="40" t="s">
         <v>1173</v>
       </c>
       <c r="E179" s="25"/>
@@ -11003,7 +11000,9 @@
       <c r="H304" s="11"/>
     </row>
     <row r="305" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A305" s="34"/>
+      <c r="A305" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B305" s="14">
         <v>2</v>
       </c>
@@ -11013,7 +11012,7 @@
       <c r="D305" s="30" t="s">
         <v>1179</v>
       </c>
-      <c r="E305" s="53"/>
+      <c r="E305" s="52"/>
       <c r="F305" s="9" t="s">
         <v>960</v>
       </c>
@@ -11023,10 +11022,10 @@
       </c>
     </row>
     <row r="306" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A306" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B306" s="51">
+      <c r="A306" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B306" s="50">
         <v>3</v>
       </c>
       <c r="C306" s="30" t="s">
@@ -11034,19 +11033,19 @@
       </c>
       <c r="D306" s="16"/>
       <c r="E306" s="27"/>
-      <c r="F306" s="52" t="s">
+      <c r="F306" s="51" t="s">
         <v>1207</v>
       </c>
-      <c r="G306" s="50"/>
-      <c r="H306" s="52" t="s">
+      <c r="G306" s="49"/>
+      <c r="H306" s="51" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A307" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B307" s="51">
+      <c r="A307" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B307" s="50">
         <v>3</v>
       </c>
       <c r="C307" s="30" t="s">
@@ -11054,19 +11053,19 @@
       </c>
       <c r="D307" s="16"/>
       <c r="E307" s="27"/>
-      <c r="F307" s="52" t="s">
+      <c r="F307" s="51" t="s">
         <v>1205</v>
       </c>
-      <c r="G307" s="50"/>
-      <c r="H307" s="52" t="s">
+      <c r="G307" s="49"/>
+      <c r="H307" s="51" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A308" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B308" s="51">
+      <c r="A308" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B308" s="50">
         <v>3</v>
       </c>
       <c r="C308" s="30" t="s">
@@ -11074,16 +11073,18 @@
       </c>
       <c r="D308" s="16"/>
       <c r="E308" s="27"/>
-      <c r="F308" s="52" t="s">
+      <c r="F308" s="51" t="s">
         <v>1206</v>
       </c>
-      <c r="G308" s="50"/>
-      <c r="H308" s="52" t="s">
+      <c r="G308" s="49"/>
+      <c r="H308" s="51" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A309" s="34"/>
+      <c r="A309" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B309" s="14">
         <v>2</v>
       </c>
@@ -11093,7 +11094,7 @@
       <c r="D309" s="30" t="s">
         <v>1180</v>
       </c>
-      <c r="E309" s="53"/>
+      <c r="E309" s="52"/>
       <c r="F309" s="9" t="s">
         <v>962</v>
       </c>
@@ -11103,10 +11104,10 @@
       </c>
     </row>
     <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A310" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B310" s="51">
+      <c r="A310" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B310" s="50">
         <v>3</v>
       </c>
       <c r="C310" s="30" t="s">
@@ -11114,19 +11115,19 @@
       </c>
       <c r="D310" s="16"/>
       <c r="E310" s="27"/>
-      <c r="F310" s="52" t="s">
+      <c r="F310" s="51" t="s">
         <v>1214</v>
       </c>
-      <c r="G310" s="50"/>
-      <c r="H310" s="52" t="s">
+      <c r="G310" s="49"/>
+      <c r="H310" s="51" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A311" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B311" s="51">
+      <c r="A311" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B311" s="50">
         <v>3</v>
       </c>
       <c r="C311" s="30" t="s">
@@ -11134,19 +11135,19 @@
       </c>
       <c r="D311" s="16"/>
       <c r="E311" s="27"/>
-      <c r="F311" s="52" t="s">
+      <c r="F311" s="51" t="s">
         <v>1215</v>
       </c>
-      <c r="G311" s="50"/>
-      <c r="H311" s="52" t="s">
+      <c r="G311" s="49"/>
+      <c r="H311" s="51" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A312" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B312" s="51">
+      <c r="A312" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B312" s="50">
         <v>3</v>
       </c>
       <c r="C312" s="30" t="s">
@@ -11154,16 +11155,18 @@
       </c>
       <c r="D312" s="16"/>
       <c r="E312" s="27"/>
-      <c r="F312" s="52" t="s">
+      <c r="F312" s="51" t="s">
         <v>1216</v>
       </c>
-      <c r="G312" s="50"/>
-      <c r="H312" s="52" t="s">
+      <c r="G312" s="49"/>
+      <c r="H312" s="51" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A313" s="34"/>
+      <c r="A313" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B313" s="14">
         <v>2</v>
       </c>
@@ -11173,7 +11176,7 @@
       <c r="D313" s="30" t="s">
         <v>1181</v>
       </c>
-      <c r="E313" s="53"/>
+      <c r="E313" s="52"/>
       <c r="F313" s="9" t="s">
         <v>964</v>
       </c>
@@ -11183,10 +11186,10 @@
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A314" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B314" s="51">
+      <c r="A314" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B314" s="50">
         <v>3</v>
       </c>
       <c r="C314" s="30" t="s">
@@ -11194,19 +11197,19 @@
       </c>
       <c r="D314" s="16"/>
       <c r="E314" s="27"/>
-      <c r="F314" s="52" t="s">
+      <c r="F314" s="51" t="s">
         <v>1222</v>
       </c>
-      <c r="G314" s="50"/>
-      <c r="H314" s="52" t="s">
+      <c r="G314" s="49"/>
+      <c r="H314" s="51" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A315" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B315" s="51">
+      <c r="A315" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B315" s="50">
         <v>3</v>
       </c>
       <c r="C315" s="30" t="s">
@@ -11214,19 +11217,19 @@
       </c>
       <c r="D315" s="16"/>
       <c r="E315" s="27"/>
-      <c r="F315" s="52" t="s">
+      <c r="F315" s="51" t="s">
         <v>1223</v>
       </c>
-      <c r="G315" s="50"/>
-      <c r="H315" s="52" t="s">
+      <c r="G315" s="49"/>
+      <c r="H315" s="51" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A316" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B316" s="51">
+      <c r="A316" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B316" s="50">
         <v>3</v>
       </c>
       <c r="C316" s="30" t="s">
@@ -11234,19 +11237,19 @@
       </c>
       <c r="D316" s="16"/>
       <c r="E316" s="27"/>
-      <c r="F316" s="52" t="s">
+      <c r="F316" s="51" t="s">
         <v>1224</v>
       </c>
-      <c r="G316" s="50"/>
-      <c r="H316" s="52" t="s">
+      <c r="G316" s="49"/>
+      <c r="H316" s="51" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A317" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B317" s="51">
+      <c r="A317" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B317" s="50">
         <v>3</v>
       </c>
       <c r="C317" s="30" t="s">
@@ -11254,19 +11257,19 @@
       </c>
       <c r="D317" s="16"/>
       <c r="E317" s="27"/>
-      <c r="F317" s="52" t="s">
+      <c r="F317" s="51" t="s">
         <v>1225</v>
       </c>
-      <c r="G317" s="50"/>
-      <c r="H317" s="52" t="s">
+      <c r="G317" s="49"/>
+      <c r="H317" s="51" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A318" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B318" s="51">
+      <c r="A318" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B318" s="50">
         <v>3</v>
       </c>
       <c r="C318" s="30" t="s">
@@ -11274,16 +11277,18 @@
       </c>
       <c r="D318" s="16"/>
       <c r="E318" s="27"/>
-      <c r="F318" s="52" t="s">
+      <c r="F318" s="51" t="s">
         <v>1226</v>
       </c>
-      <c r="G318" s="50"/>
-      <c r="H318" s="52" t="s">
+      <c r="G318" s="49"/>
+      <c r="H318" s="51" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A319" s="34"/>
+      <c r="A319" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B319" s="14">
         <v>2</v>
       </c>
@@ -11293,7 +11298,7 @@
       <c r="D319" s="30" t="s">
         <v>1182</v>
       </c>
-      <c r="E319" s="53"/>
+      <c r="E319" s="52"/>
       <c r="F319" s="9" t="s">
         <v>966</v>
       </c>
@@ -11303,10 +11308,10 @@
       </c>
     </row>
     <row r="320" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A320" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B320" s="51">
+      <c r="A320" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B320" s="50">
         <v>3</v>
       </c>
       <c r="C320" s="30" t="s">
@@ -11314,19 +11319,19 @@
       </c>
       <c r="D320" s="16"/>
       <c r="E320" s="27"/>
-      <c r="F320" s="52" t="s">
+      <c r="F320" s="51" t="s">
         <v>1231</v>
       </c>
-      <c r="G320" s="50"/>
-      <c r="H320" s="52" t="s">
+      <c r="G320" s="49"/>
+      <c r="H320" s="51" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A321" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B321" s="51">
+      <c r="A321" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B321" s="50">
         <v>3</v>
       </c>
       <c r="C321" s="30" t="s">
@@ -11334,19 +11339,19 @@
       </c>
       <c r="D321" s="16"/>
       <c r="E321" s="27"/>
-      <c r="F321" s="52" t="s">
+      <c r="F321" s="51" t="s">
         <v>1232</v>
       </c>
-      <c r="G321" s="50"/>
-      <c r="H321" s="52" t="s">
+      <c r="G321" s="49"/>
+      <c r="H321" s="51" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A322" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B322" s="51">
+      <c r="A322" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B322" s="50">
         <v>3</v>
       </c>
       <c r="C322" s="30" t="s">
@@ -11354,19 +11359,19 @@
       </c>
       <c r="D322" s="16"/>
       <c r="E322" s="27"/>
-      <c r="F322" s="52" t="s">
+      <c r="F322" s="51" t="s">
         <v>1233</v>
       </c>
-      <c r="G322" s="50"/>
-      <c r="H322" s="52" t="s">
+      <c r="G322" s="49"/>
+      <c r="H322" s="51" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A323" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B323" s="51">
+      <c r="A323" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B323" s="50">
         <v>3</v>
       </c>
       <c r="C323" s="30" t="s">
@@ -11374,16 +11379,18 @@
       </c>
       <c r="D323" s="16"/>
       <c r="E323" s="27"/>
-      <c r="F323" s="52" t="s">
+      <c r="F323" s="51" t="s">
         <v>1234</v>
       </c>
-      <c r="G323" s="50"/>
-      <c r="H323" s="52" t="s">
+      <c r="G323" s="49"/>
+      <c r="H323" s="51" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A324" s="34"/>
+      <c r="A324" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B324" s="14">
         <v>2</v>
       </c>
@@ -11393,7 +11400,7 @@
       <c r="D324" s="30" t="s">
         <v>1183</v>
       </c>
-      <c r="E324" s="53"/>
+      <c r="E324" s="52"/>
       <c r="F324" s="9" t="s">
         <v>968</v>
       </c>
@@ -11403,10 +11410,10 @@
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A325" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B325" s="51">
+      <c r="A325" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B325" s="50">
         <v>3</v>
       </c>
       <c r="C325" s="30" t="s">
@@ -11414,19 +11421,19 @@
       </c>
       <c r="D325" s="16"/>
       <c r="E325" s="27"/>
-      <c r="F325" s="52" t="s">
+      <c r="F325" s="51" t="s">
         <v>1239</v>
       </c>
-      <c r="G325" s="50"/>
-      <c r="H325" s="52" t="s">
+      <c r="G325" s="49"/>
+      <c r="H325" s="51" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A326" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B326" s="51">
+      <c r="A326" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B326" s="50">
         <v>3</v>
       </c>
       <c r="C326" s="30" t="s">
@@ -11434,19 +11441,19 @@
       </c>
       <c r="D326" s="16"/>
       <c r="E326" s="27"/>
-      <c r="F326" s="52" t="s">
+      <c r="F326" s="51" t="s">
         <v>1240</v>
       </c>
-      <c r="G326" s="50"/>
-      <c r="H326" s="52" t="s">
+      <c r="G326" s="49"/>
+      <c r="H326" s="51" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A327" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B327" s="51">
+      <c r="A327" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B327" s="50">
         <v>3</v>
       </c>
       <c r="C327" s="30" t="s">
@@ -11454,19 +11461,19 @@
       </c>
       <c r="D327" s="16"/>
       <c r="E327" s="27"/>
-      <c r="F327" s="52" t="s">
+      <c r="F327" s="51" t="s">
         <v>1241</v>
       </c>
-      <c r="G327" s="50"/>
-      <c r="H327" s="52" t="s">
+      <c r="G327" s="49"/>
+      <c r="H327" s="51" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A328" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B328" s="51">
+      <c r="A328" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B328" s="50">
         <v>3</v>
       </c>
       <c r="C328" s="30" t="s">
@@ -11474,11 +11481,11 @@
       </c>
       <c r="D328" s="16"/>
       <c r="E328" s="27"/>
-      <c r="F328" s="52" t="s">
+      <c r="F328" s="51" t="s">
         <v>1242</v>
       </c>
-      <c r="G328" s="50"/>
-      <c r="H328" s="52" t="s">
+      <c r="G328" s="49"/>
+      <c r="H328" s="51" t="s">
         <v>1291</v>
       </c>
     </row>
@@ -11519,7 +11526,9 @@
       </c>
     </row>
     <row r="331" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A331" s="34"/>
+      <c r="A331" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B331" s="14">
         <v>3</v>
       </c>
@@ -11527,7 +11536,7 @@
         <v>976</v>
       </c>
       <c r="D331" s="33"/>
-      <c r="E331" s="53"/>
+      <c r="E331" s="52"/>
       <c r="F331" s="9" t="s">
         <v>977</v>
       </c>
@@ -11537,10 +11546,10 @@
       </c>
     </row>
     <row r="332" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A332" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B332" s="51">
+      <c r="A332" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B332" s="50">
         <v>4</v>
       </c>
       <c r="C332" s="30" t="s">
@@ -11548,19 +11557,19 @@
       </c>
       <c r="D332" s="16"/>
       <c r="E332" s="27"/>
-      <c r="F332" s="52" t="s">
+      <c r="F332" s="51" t="s">
         <v>1250</v>
       </c>
-      <c r="G332" s="50"/>
-      <c r="H332" s="52" t="s">
+      <c r="G332" s="49"/>
+      <c r="H332" s="51" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A333" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B333" s="51">
+      <c r="A333" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B333" s="50">
         <v>4</v>
       </c>
       <c r="C333" s="30" t="s">
@@ -11568,19 +11577,19 @@
       </c>
       <c r="D333" s="16"/>
       <c r="E333" s="27"/>
-      <c r="F333" s="52" t="s">
+      <c r="F333" s="51" t="s">
         <v>1251</v>
       </c>
-      <c r="G333" s="50"/>
-      <c r="H333" s="52" t="s">
+      <c r="G333" s="49"/>
+      <c r="H333" s="51" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A334" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B334" s="51">
+      <c r="A334" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B334" s="50">
         <v>4</v>
       </c>
       <c r="C334" s="30" t="s">
@@ -11588,19 +11597,19 @@
       </c>
       <c r="D334" s="16"/>
       <c r="E334" s="27"/>
-      <c r="F334" s="52" t="s">
+      <c r="F334" s="51" t="s">
         <v>1252</v>
       </c>
-      <c r="G334" s="50"/>
-      <c r="H334" s="52" t="s">
+      <c r="G334" s="49"/>
+      <c r="H334" s="51" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A335" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B335" s="51">
+      <c r="A335" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B335" s="50">
         <v>4</v>
       </c>
       <c r="C335" s="30" t="s">
@@ -11608,19 +11617,19 @@
       </c>
       <c r="D335" s="16"/>
       <c r="E335" s="27"/>
-      <c r="F335" s="52" t="s">
+      <c r="F335" s="51" t="s">
         <v>1253</v>
       </c>
-      <c r="G335" s="50"/>
-      <c r="H335" s="52" t="s">
+      <c r="G335" s="49"/>
+      <c r="H335" s="51" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A336" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B336" s="51">
+      <c r="A336" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B336" s="50">
         <v>4</v>
       </c>
       <c r="C336" s="30" t="s">
@@ -11628,19 +11637,19 @@
       </c>
       <c r="D336" s="16"/>
       <c r="E336" s="27"/>
-      <c r="F336" s="52" t="s">
+      <c r="F336" s="51" t="s">
         <v>1254</v>
       </c>
-      <c r="G336" s="50"/>
-      <c r="H336" s="52" t="s">
+      <c r="G336" s="49"/>
+      <c r="H336" s="51" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="337" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A337" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B337" s="51">
+      <c r="A337" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B337" s="50">
         <v>4</v>
       </c>
       <c r="C337" s="30" t="s">
@@ -11648,19 +11657,19 @@
       </c>
       <c r="D337" s="16"/>
       <c r="E337" s="27"/>
-      <c r="F337" s="52" t="s">
+      <c r="F337" s="51" t="s">
         <v>1255</v>
       </c>
-      <c r="G337" s="50"/>
-      <c r="H337" s="52" t="s">
+      <c r="G337" s="49"/>
+      <c r="H337" s="51" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="338" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A338" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B338" s="51">
+      <c r="A338" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B338" s="50">
         <v>4</v>
       </c>
       <c r="C338" s="30" t="s">
@@ -11668,11 +11677,11 @@
       </c>
       <c r="D338" s="16"/>
       <c r="E338" s="27"/>
-      <c r="F338" s="52" t="s">
+      <c r="F338" s="51" t="s">
         <v>1256</v>
       </c>
-      <c r="G338" s="50"/>
-      <c r="H338" s="52" t="s">
+      <c r="G338" s="49"/>
+      <c r="H338" s="51" t="s">
         <v>1298</v>
       </c>
     </row>
@@ -11694,16 +11703,18 @@
         <v>981</v>
       </c>
     </row>
-    <row r="340" spans="1:159" s="35" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A340" s="34"/>
+    <row r="340" spans="1:159" s="34" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A340" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B340" s="14">
         <v>3</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="D340" s="36"/>
-      <c r="E340" s="53"/>
+      <c r="D340" s="35"/>
+      <c r="E340" s="52"/>
       <c r="F340" s="9" t="s">
         <v>983</v>
       </c>
@@ -11711,163 +11722,163 @@
       <c r="H340" s="9" t="s">
         <v>984</v>
       </c>
-      <c r="I340" s="37"/>
-      <c r="J340" s="37"/>
-      <c r="K340" s="37"/>
-      <c r="L340" s="37"/>
-      <c r="M340" s="37"/>
-      <c r="N340" s="37"/>
-      <c r="O340" s="37"/>
-      <c r="P340" s="37"/>
-      <c r="Q340" s="37"/>
-      <c r="R340" s="37"/>
-      <c r="S340" s="37"/>
-      <c r="T340" s="37"/>
-      <c r="U340" s="37"/>
-      <c r="V340" s="37"/>
-      <c r="W340" s="37"/>
-      <c r="X340" s="37"/>
-      <c r="Y340" s="37"/>
-      <c r="Z340" s="37"/>
-      <c r="AA340" s="37"/>
-      <c r="AB340" s="37"/>
-      <c r="AC340" s="37"/>
-      <c r="AD340" s="37"/>
-      <c r="AE340" s="37"/>
-      <c r="AF340" s="37"/>
-      <c r="AG340" s="37"/>
-      <c r="AH340" s="37"/>
-      <c r="AI340" s="37"/>
-      <c r="AJ340" s="37"/>
-      <c r="AK340" s="37"/>
-      <c r="AL340" s="37"/>
-      <c r="AM340" s="37"/>
-      <c r="AN340" s="37"/>
-      <c r="AO340" s="37"/>
-      <c r="AP340" s="37"/>
-      <c r="AQ340" s="37"/>
-      <c r="AR340" s="37"/>
-      <c r="AS340" s="37"/>
-      <c r="AT340" s="37"/>
-      <c r="AU340" s="37"/>
-      <c r="AV340" s="37"/>
-      <c r="AW340" s="37"/>
-      <c r="AX340" s="37"/>
-      <c r="AY340" s="37"/>
-      <c r="AZ340" s="37"/>
-      <c r="BA340" s="37"/>
-      <c r="BB340" s="37"/>
-      <c r="BC340" s="37"/>
-      <c r="BD340" s="37"/>
-      <c r="BE340" s="37"/>
-      <c r="BF340" s="37"/>
-      <c r="BG340" s="37"/>
-      <c r="BH340" s="37"/>
-      <c r="BI340" s="37"/>
-      <c r="BJ340" s="37"/>
-      <c r="BK340" s="37"/>
-      <c r="BL340" s="37"/>
-      <c r="BM340" s="37"/>
-      <c r="BN340" s="37"/>
-      <c r="BO340" s="37"/>
-      <c r="BP340" s="37"/>
-      <c r="BQ340" s="37"/>
-      <c r="BR340" s="37"/>
-      <c r="BS340" s="37"/>
-      <c r="BT340" s="37"/>
-      <c r="BU340" s="37"/>
-      <c r="BV340" s="37"/>
-      <c r="BW340" s="37"/>
-      <c r="BX340" s="37"/>
-      <c r="BY340" s="37"/>
-      <c r="BZ340" s="37"/>
-      <c r="CA340" s="37"/>
-      <c r="CB340" s="37"/>
-      <c r="CC340" s="37"/>
-      <c r="CD340" s="37"/>
-      <c r="CE340" s="37"/>
-      <c r="CF340" s="37"/>
-      <c r="CG340" s="37"/>
-      <c r="CH340" s="37"/>
-      <c r="CI340" s="37"/>
-      <c r="CJ340" s="37"/>
-      <c r="CK340" s="37"/>
-      <c r="CL340" s="37"/>
-      <c r="CM340" s="37"/>
-      <c r="CN340" s="37"/>
-      <c r="CO340" s="37"/>
-      <c r="CP340" s="37"/>
-      <c r="CQ340" s="37"/>
-      <c r="CR340" s="37"/>
-      <c r="CS340" s="37"/>
-      <c r="CT340" s="37"/>
-      <c r="CU340" s="37"/>
-      <c r="CV340" s="37"/>
-      <c r="CW340" s="37"/>
-      <c r="CX340" s="37"/>
-      <c r="CY340" s="37"/>
-      <c r="CZ340" s="37"/>
-      <c r="DA340" s="37"/>
-      <c r="DB340" s="37"/>
-      <c r="DC340" s="37"/>
-      <c r="DD340" s="37"/>
-      <c r="DE340" s="37"/>
-      <c r="DF340" s="37"/>
-      <c r="DG340" s="37"/>
-      <c r="DH340" s="37"/>
-      <c r="DI340" s="37"/>
-      <c r="DJ340" s="37"/>
-      <c r="DK340" s="37"/>
-      <c r="DL340" s="37"/>
-      <c r="DM340" s="37"/>
-      <c r="DN340" s="37"/>
-      <c r="DO340" s="37"/>
-      <c r="DP340" s="37"/>
-      <c r="DQ340" s="37"/>
-      <c r="DR340" s="37"/>
-      <c r="DS340" s="37"/>
-      <c r="DT340" s="37"/>
-      <c r="DU340" s="37"/>
-      <c r="DV340" s="37"/>
-      <c r="DW340" s="37"/>
-      <c r="DX340" s="37"/>
-      <c r="DY340" s="37"/>
-      <c r="DZ340" s="37"/>
-      <c r="EA340" s="37"/>
-      <c r="EB340" s="37"/>
-      <c r="EC340" s="37"/>
-      <c r="ED340" s="37"/>
-      <c r="EE340" s="37"/>
-      <c r="EF340" s="37"/>
-      <c r="EG340" s="37"/>
-      <c r="EH340" s="37"/>
-      <c r="EI340" s="37"/>
-      <c r="EJ340" s="37"/>
-      <c r="EK340" s="37"/>
-      <c r="EL340" s="37"/>
-      <c r="EM340" s="37"/>
-      <c r="EN340" s="37"/>
-      <c r="EO340" s="37"/>
-      <c r="EP340" s="37"/>
-      <c r="EQ340" s="37"/>
-      <c r="ER340" s="37"/>
-      <c r="ES340" s="37"/>
-      <c r="ET340" s="37"/>
-      <c r="EU340" s="37"/>
-      <c r="EV340" s="37"/>
-      <c r="EW340" s="37"/>
-      <c r="EX340" s="37"/>
-      <c r="EY340" s="37"/>
-      <c r="EZ340" s="37"/>
-      <c r="FA340" s="37"/>
-      <c r="FB340" s="37"/>
-      <c r="FC340" s="37"/>
+      <c r="I340" s="36"/>
+      <c r="J340" s="36"/>
+      <c r="K340" s="36"/>
+      <c r="L340" s="36"/>
+      <c r="M340" s="36"/>
+      <c r="N340" s="36"/>
+      <c r="O340" s="36"/>
+      <c r="P340" s="36"/>
+      <c r="Q340" s="36"/>
+      <c r="R340" s="36"/>
+      <c r="S340" s="36"/>
+      <c r="T340" s="36"/>
+      <c r="U340" s="36"/>
+      <c r="V340" s="36"/>
+      <c r="W340" s="36"/>
+      <c r="X340" s="36"/>
+      <c r="Y340" s="36"/>
+      <c r="Z340" s="36"/>
+      <c r="AA340" s="36"/>
+      <c r="AB340" s="36"/>
+      <c r="AC340" s="36"/>
+      <c r="AD340" s="36"/>
+      <c r="AE340" s="36"/>
+      <c r="AF340" s="36"/>
+      <c r="AG340" s="36"/>
+      <c r="AH340" s="36"/>
+      <c r="AI340" s="36"/>
+      <c r="AJ340" s="36"/>
+      <c r="AK340" s="36"/>
+      <c r="AL340" s="36"/>
+      <c r="AM340" s="36"/>
+      <c r="AN340" s="36"/>
+      <c r="AO340" s="36"/>
+      <c r="AP340" s="36"/>
+      <c r="AQ340" s="36"/>
+      <c r="AR340" s="36"/>
+      <c r="AS340" s="36"/>
+      <c r="AT340" s="36"/>
+      <c r="AU340" s="36"/>
+      <c r="AV340" s="36"/>
+      <c r="AW340" s="36"/>
+      <c r="AX340" s="36"/>
+      <c r="AY340" s="36"/>
+      <c r="AZ340" s="36"/>
+      <c r="BA340" s="36"/>
+      <c r="BB340" s="36"/>
+      <c r="BC340" s="36"/>
+      <c r="BD340" s="36"/>
+      <c r="BE340" s="36"/>
+      <c r="BF340" s="36"/>
+      <c r="BG340" s="36"/>
+      <c r="BH340" s="36"/>
+      <c r="BI340" s="36"/>
+      <c r="BJ340" s="36"/>
+      <c r="BK340" s="36"/>
+      <c r="BL340" s="36"/>
+      <c r="BM340" s="36"/>
+      <c r="BN340" s="36"/>
+      <c r="BO340" s="36"/>
+      <c r="BP340" s="36"/>
+      <c r="BQ340" s="36"/>
+      <c r="BR340" s="36"/>
+      <c r="BS340" s="36"/>
+      <c r="BT340" s="36"/>
+      <c r="BU340" s="36"/>
+      <c r="BV340" s="36"/>
+      <c r="BW340" s="36"/>
+      <c r="BX340" s="36"/>
+      <c r="BY340" s="36"/>
+      <c r="BZ340" s="36"/>
+      <c r="CA340" s="36"/>
+      <c r="CB340" s="36"/>
+      <c r="CC340" s="36"/>
+      <c r="CD340" s="36"/>
+      <c r="CE340" s="36"/>
+      <c r="CF340" s="36"/>
+      <c r="CG340" s="36"/>
+      <c r="CH340" s="36"/>
+      <c r="CI340" s="36"/>
+      <c r="CJ340" s="36"/>
+      <c r="CK340" s="36"/>
+      <c r="CL340" s="36"/>
+      <c r="CM340" s="36"/>
+      <c r="CN340" s="36"/>
+      <c r="CO340" s="36"/>
+      <c r="CP340" s="36"/>
+      <c r="CQ340" s="36"/>
+      <c r="CR340" s="36"/>
+      <c r="CS340" s="36"/>
+      <c r="CT340" s="36"/>
+      <c r="CU340" s="36"/>
+      <c r="CV340" s="36"/>
+      <c r="CW340" s="36"/>
+      <c r="CX340" s="36"/>
+      <c r="CY340" s="36"/>
+      <c r="CZ340" s="36"/>
+      <c r="DA340" s="36"/>
+      <c r="DB340" s="36"/>
+      <c r="DC340" s="36"/>
+      <c r="DD340" s="36"/>
+      <c r="DE340" s="36"/>
+      <c r="DF340" s="36"/>
+      <c r="DG340" s="36"/>
+      <c r="DH340" s="36"/>
+      <c r="DI340" s="36"/>
+      <c r="DJ340" s="36"/>
+      <c r="DK340" s="36"/>
+      <c r="DL340" s="36"/>
+      <c r="DM340" s="36"/>
+      <c r="DN340" s="36"/>
+      <c r="DO340" s="36"/>
+      <c r="DP340" s="36"/>
+      <c r="DQ340" s="36"/>
+      <c r="DR340" s="36"/>
+      <c r="DS340" s="36"/>
+      <c r="DT340" s="36"/>
+      <c r="DU340" s="36"/>
+      <c r="DV340" s="36"/>
+      <c r="DW340" s="36"/>
+      <c r="DX340" s="36"/>
+      <c r="DY340" s="36"/>
+      <c r="DZ340" s="36"/>
+      <c r="EA340" s="36"/>
+      <c r="EB340" s="36"/>
+      <c r="EC340" s="36"/>
+      <c r="ED340" s="36"/>
+      <c r="EE340" s="36"/>
+      <c r="EF340" s="36"/>
+      <c r="EG340" s="36"/>
+      <c r="EH340" s="36"/>
+      <c r="EI340" s="36"/>
+      <c r="EJ340" s="36"/>
+      <c r="EK340" s="36"/>
+      <c r="EL340" s="36"/>
+      <c r="EM340" s="36"/>
+      <c r="EN340" s="36"/>
+      <c r="EO340" s="36"/>
+      <c r="EP340" s="36"/>
+      <c r="EQ340" s="36"/>
+      <c r="ER340" s="36"/>
+      <c r="ES340" s="36"/>
+      <c r="ET340" s="36"/>
+      <c r="EU340" s="36"/>
+      <c r="EV340" s="36"/>
+      <c r="EW340" s="36"/>
+      <c r="EX340" s="36"/>
+      <c r="EY340" s="36"/>
+      <c r="EZ340" s="36"/>
+      <c r="FA340" s="36"/>
+      <c r="FB340" s="36"/>
+      <c r="FC340" s="36"/>
     </row>
     <row r="341" spans="1:159" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A341" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B341" s="51">
+      <c r="A341" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B341" s="50">
         <v>4</v>
       </c>
       <c r="C341" s="30" t="s">
@@ -11875,19 +11886,19 @@
       </c>
       <c r="D341" s="16"/>
       <c r="E341" s="27"/>
-      <c r="F341" s="52" t="s">
+      <c r="F341" s="51" t="s">
         <v>1304</v>
       </c>
-      <c r="G341" s="50"/>
-      <c r="H341" s="52" t="s">
+      <c r="G341" s="49"/>
+      <c r="H341" s="51" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="342" spans="1:159" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A342" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B342" s="51">
+      <c r="A342" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B342" s="50">
         <v>4</v>
       </c>
       <c r="C342" s="30" t="s">
@@ -11895,19 +11906,19 @@
       </c>
       <c r="D342" s="16"/>
       <c r="E342" s="27"/>
-      <c r="F342" s="52" t="s">
+      <c r="F342" s="51" t="s">
         <v>1263</v>
       </c>
-      <c r="G342" s="50"/>
-      <c r="H342" s="52" t="s">
+      <c r="G342" s="49"/>
+      <c r="H342" s="51" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="343" spans="1:159" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A343" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B343" s="51">
+      <c r="A343" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B343" s="50">
         <v>4</v>
       </c>
       <c r="C343" s="30" t="s">
@@ -11915,19 +11926,19 @@
       </c>
       <c r="D343" s="16"/>
       <c r="E343" s="27"/>
-      <c r="F343" s="52" t="s">
+      <c r="F343" s="51" t="s">
         <v>1264</v>
       </c>
-      <c r="G343" s="50"/>
-      <c r="H343" s="52" t="s">
+      <c r="G343" s="49"/>
+      <c r="H343" s="51" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="344" spans="1:159" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A344" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B344" s="51">
+      <c r="A344" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B344" s="50">
         <v>4</v>
       </c>
       <c r="C344" s="30" t="s">
@@ -11935,19 +11946,19 @@
       </c>
       <c r="D344" s="16"/>
       <c r="E344" s="27"/>
-      <c r="F344" s="52" t="s">
+      <c r="F344" s="51" t="s">
         <v>1265</v>
       </c>
-      <c r="G344" s="50"/>
-      <c r="H344" s="52" t="s">
+      <c r="G344" s="49"/>
+      <c r="H344" s="51" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="345" spans="1:159" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A345" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B345" s="51">
+      <c r="A345" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B345" s="50">
         <v>4</v>
       </c>
       <c r="C345" s="30" t="s">
@@ -11955,19 +11966,19 @@
       </c>
       <c r="D345" s="16"/>
       <c r="E345" s="27"/>
-      <c r="F345" s="52" t="s">
+      <c r="F345" s="51" t="s">
         <v>1266</v>
       </c>
-      <c r="G345" s="50"/>
-      <c r="H345" s="52" t="s">
+      <c r="G345" s="49"/>
+      <c r="H345" s="51" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="346" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A346" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B346" s="51">
+      <c r="A346" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B346" s="50">
         <v>4</v>
       </c>
       <c r="C346" s="30" t="s">
@@ -11975,11 +11986,11 @@
       </c>
       <c r="D346" s="16"/>
       <c r="E346" s="27"/>
-      <c r="F346" s="52" t="s">
+      <c r="F346" s="51" t="s">
         <v>1267</v>
       </c>
-      <c r="G346" s="50"/>
-      <c r="H346" s="52" t="s">
+      <c r="G346" s="49"/>
+      <c r="H346" s="51" t="s">
         <v>1303</v>
       </c>
     </row>
@@ -12002,28 +12013,30 @@
       </c>
     </row>
     <row r="348" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A348" s="34"/>
+      <c r="A348" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B348" s="14">
         <v>3</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="D348" s="36"/>
-      <c r="E348" s="53"/>
+      <c r="D348" s="35"/>
+      <c r="E348" s="52"/>
       <c r="F348" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="G348" s="38"/>
+      <c r="G348" s="37"/>
       <c r="H348" s="9" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="349" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A349" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B349" s="51">
+      <c r="A349" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B349" s="50">
         <v>4</v>
       </c>
       <c r="C349" s="30" t="s">
@@ -12031,19 +12044,19 @@
       </c>
       <c r="D349" s="16"/>
       <c r="E349" s="27"/>
-      <c r="F349" s="52" t="s">
+      <c r="F349" s="51" t="s">
         <v>1272</v>
       </c>
-      <c r="G349" s="50"/>
-      <c r="H349" s="52" t="s">
+      <c r="G349" s="49"/>
+      <c r="H349" s="51" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="350" spans="1:159" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A350" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B350" s="51">
+      <c r="A350" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B350" s="50">
         <v>4</v>
       </c>
       <c r="C350" s="30" t="s">
@@ -12051,19 +12064,19 @@
       </c>
       <c r="D350" s="16"/>
       <c r="E350" s="27"/>
-      <c r="F350" s="52" t="s">
+      <c r="F350" s="51" t="s">
         <v>1273</v>
       </c>
-      <c r="G350" s="50"/>
-      <c r="H350" s="52" t="s">
+      <c r="G350" s="49"/>
+      <c r="H350" s="51" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="351" spans="1:159" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A351" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B351" s="51">
+      <c r="A351" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B351" s="50">
         <v>4</v>
       </c>
       <c r="C351" s="30" t="s">
@@ -12071,19 +12084,19 @@
       </c>
       <c r="D351" s="16"/>
       <c r="E351" s="27"/>
-      <c r="F351" s="52" t="s">
+      <c r="F351" s="51" t="s">
         <v>1274</v>
       </c>
-      <c r="G351" s="50"/>
-      <c r="H351" s="52" t="s">
+      <c r="G351" s="49"/>
+      <c r="H351" s="51" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="352" spans="1:159" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A352" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B352" s="51">
+      <c r="A352" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B352" s="50">
         <v>4</v>
       </c>
       <c r="C352" s="30" t="s">
@@ -12091,11 +12104,11 @@
       </c>
       <c r="D352" s="16"/>
       <c r="E352" s="27"/>
-      <c r="F352" s="52" t="s">
+      <c r="F352" s="51" t="s">
         <v>1275</v>
       </c>
-      <c r="G352" s="50"/>
-      <c r="H352" s="52" t="s">
+      <c r="G352" s="49"/>
+      <c r="H352" s="51" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -12107,12 +12120,12 @@
       <c r="C353" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="D353" s="36"/>
-      <c r="E353" s="39"/>
+      <c r="D353" s="35"/>
+      <c r="E353" s="38"/>
       <c r="F353" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="G353" s="38"/>
+      <c r="G353" s="37"/>
       <c r="H353" s="9" t="s">
         <v>993</v>
       </c>
